--- a/專題/merge_abs.xlsx
+++ b/專題/merge_abs.xlsx
@@ -484,20 +484,18 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16,612.95</t>
+          <t>16,863.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>102.42</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.61</v>
-      </c>
+        <v>250.39</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -514,20 +512,18 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14,522.96</t>
+          <t>14,739.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>89.63</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.61</v>
-      </c>
+        <v>216.4</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -544,20 +540,18 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8,293.37</t>
+          <t>8,417.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>58.88</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.7</v>
-      </c>
+        <v>124.07</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -574,20 +568,18 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11,092.49</t>
+          <t>11,271.36</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>83</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.74</v>
-      </c>
+        <v>178.87</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -604,20 +596,18 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10,555.73</t>
+          <t>10,716.29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>79.18000000000001</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.74</v>
-      </c>
+        <v>160.56</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -634,20 +624,18 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12,772.14</t>
+          <t>12,984.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>86.98</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.68</v>
-      </c>
+        <v>211.96</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -664,20 +652,18 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>18,966.42</t>
+          <t>19,328.54</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>139.79</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.73</v>
-      </c>
+        <v>362.12</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -694,20 +680,18 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9,510.00</t>
+          <t>9,621.79</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>63.57</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.66</v>
-      </c>
+        <v>111.79</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -724,20 +708,18 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5,947.38</t>
+          <t>6,002.28</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.16</v>
-      </c>
+        <v>54.9</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -754,20 +736,18 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8,912.93</t>
+          <t>9,021.84</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>73.11</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.8100000000000001</v>
-      </c>
+        <v>108.91</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -784,20 +764,18 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7,980.33</t>
+          <t>8,071.76</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>46.12</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.57</v>
-      </c>
+        <v>91.43000000000001</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -814,20 +792,18 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12,472.38</t>
+          <t>12,669.20</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>74.31</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.59</v>
-      </c>
+        <v>196.82</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -844,20 +820,18 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>17,081.46</t>
+          <t>17,251.07</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>73.86</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.43</v>
-      </c>
+        <v>169.61</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -874,20 +848,18 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14,213.75</t>
+          <t>14,363.25</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>40.28</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.28</v>
-      </c>
+        <v>149.5</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -904,20 +876,18 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8,194.96</t>
+          <t>8,282.99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.1</v>
-      </c>
+        <v>88.03</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -934,20 +904,18 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>612.28</t>
+          <t>613.17</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.3</v>
-      </c>
+        <v>0.89</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -964,20 +932,18 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>819.16</t>
+          <t>827.80</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.32</v>
-      </c>
+        <v>8.640000000000001</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -994,20 +960,18 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3,769.01</t>
+          <t>3,837.06</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>26.88</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.71</v>
-      </c>
+        <v>68.05</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -1024,7 +988,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>154.16</t>
+          <t>153.73</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1054,20 +1018,18 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1,797.84</t>
+          <t>1,810.75</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.24</v>
-      </c>
+        <v>12.91</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1084,20 +1046,18 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>238.46</t>
+          <t>241.73</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.59</v>
-      </c>
+        <v>3.27</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1114,20 +1074,18 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>576.81</t>
+          <t>582.31</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.54</v>
-      </c>
+        <v>5.5</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1144,7 +1102,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>226.09</t>
+          <t>229.48</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1153,7 +1111,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.01</v>
+        <v>3.39</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1172,7 +1130,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>106.26</t>
+          <t>107.22</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1181,7 +1139,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.25</v>
+        <v>0.96</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
@@ -1200,7 +1158,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>117.31</t>
+          <t>117.72</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1209,7 +1167,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.64</v>
+        <v>0.41</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -1228,20 +1186,18 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>128.21</t>
+          <t>129.24</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.13</v>
-      </c>
+        <v>1.03</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -1258,18 +1214,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>73.05</t>
+          <t>73.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G28" t="inlineStr"/>
+        <v>0.05</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.07000000000000001</v>
+      </c>
       <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -1286,20 +1244,18 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>63.16</t>
+          <t>64.62</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.46</v>
-      </c>
+        <v>1.46</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -1316,7 +1272,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>295.71</t>
+          <t>296.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1325,7 +1281,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.3</v>
+        <v>0.29</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -1344,18 +1300,20 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>139.19</t>
+          <t>138.94</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="G31" t="inlineStr"/>
+        <v>0.25</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.18</v>
+      </c>
       <c r="H31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -1372,20 +1330,18 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>232.54</t>
+          <t>234.88</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1.03</v>
-      </c>
+        <v>2.34</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -1402,20 +1358,18 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>332.54</t>
+          <t>343.81</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1.41</v>
-      </c>
+        <v>11.27</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -1432,20 +1386,18 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>672.21</t>
+          <t>684.45</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.73</v>
-      </c>
+        <v>12.24</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -1462,20 +1414,18 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>317.59</t>
+          <t>323.91</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.65</v>
-      </c>
+        <v>6.32</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -1492,20 +1442,18 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>123.24</t>
+          <t>125.82</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.35</v>
-      </c>
+        <v>2.58</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -1522,20 +1470,18 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>33.25</t>
+          <t>33.90</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.63</v>
-      </c>
+        <v>0.65</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -1552,20 +1498,18 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>124.67</t>
+          <t>125.82</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1.06</v>
-      </c>
+        <v>1.15</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -1582,20 +1526,18 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>160.75</t>
+          <t>163.25</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1.32</v>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -1612,20 +1554,18 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>169.90</t>
+          <t>170.98</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.52</v>
-      </c>
+        <v>1.08</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
     </row>
     <row r="41">
@@ -1642,20 +1582,18 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>122.46</t>
+          <t>122.83</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.7</v>
-      </c>
+        <v>0.37</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
     </row>
     <row r="42">
@@ -1672,20 +1610,18 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>95.69</t>
+          <t>97.18</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.86</v>
-      </c>
+        <v>1.49</v>
+      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -1702,20 +1638,18 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>348.94</t>
+          <t>350.38</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.19</v>
-      </c>
+        <v>1.44</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
     </row>
     <row r="44">
@@ -1732,18 +1666,20 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>158.40</t>
+          <t>157.77</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G44" t="inlineStr"/>
+        <v>0.63</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.4</v>
+      </c>
       <c r="H44" t="inlineStr"/>
     </row>
     <row r="45">
@@ -1760,20 +1696,18 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>115.75</t>
+          <t>116.98</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.6</v>
-      </c>
+        <v>1.23</v>
+      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
     </row>
     <row r="46">
@@ -1790,20 +1724,18 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1,514.80</t>
+          <t>1,527.82</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.76</v>
-      </c>
+        <v>13.02</v>
+      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -1820,20 +1752,18 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>278.18</t>
+          <t>283.34</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.86</v>
-      </c>
+        <v>5.16</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -1850,20 +1780,18 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>106.51</t>
+          <t>108.70</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.08</v>
-      </c>
+        <v>2.19</v>
+      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -1880,20 +1808,18 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>351.12</t>
+          <t>357.01</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1.28</v>
-      </c>
+        <v>5.89</v>
+      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -1910,20 +1836,18 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>26,400.06</t>
+          <t>27,186.81</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>327.89</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1.23</v>
-      </c>
+        <v>786.75</v>
+      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -1940,18 +1864,20 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4,716.76</t>
+          <t>4,646.48</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>28.76</v>
-      </c>
-      <c r="G51" t="inlineStr"/>
+        <v>70.28</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.49</v>
+      </c>
       <c r="H51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -1968,20 +1894,18 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>24,850.04</t>
+          <t>25,755.01</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>370.2</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1.47</v>
-      </c>
+        <v>904.97</v>
+      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
     </row>
     <row r="53">
@@ -1998,18 +1922,20 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4,273.29</t>
+          <t>4,195.48</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>31.13</v>
-      </c>
-      <c r="G53" t="inlineStr"/>
+        <v>77.81</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.82</v>
+      </c>
       <c r="H53" t="inlineStr"/>
     </row>
     <row r="54">
@@ -2026,7 +1952,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4,439.35</t>
+          <t>4,446.15</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2035,7 +1961,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>12.53</v>
+        <v>6.8</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
@@ -2054,20 +1980,18 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>6,720.45</t>
+          <t>6,848.84</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>46.52</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0.6899999999999999</v>
-      </c>
+        <v>128.39</v>
+      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -2084,20 +2008,18 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4,628.61</t>
+          <t>4,734.34</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="G56" t="n">
-        <v>1.45</v>
-      </c>
+        <v>105.73</v>
+      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
     </row>
     <row r="57">
@@ -2114,7 +2036,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3,429.45</t>
+          <t>3,428.35</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2123,10 +2045,10 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>6.15</v>
+        <v>1.1</v>
       </c>
       <c r="G57" t="n">
-        <v>0.18</v>
+        <v>0.03</v>
       </c>
       <c r="H57" t="inlineStr"/>
     </row>
@@ -2144,20 +2066,18 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>7,278.67</t>
+          <t>7,401.03</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>56.01</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0.76</v>
-      </c>
+        <v>122.36</v>
+      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
     </row>
     <row r="59">
@@ -2174,20 +2094,18 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>7,875.74</t>
+          <t>7,958.84</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>44.57</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.5600000000000001</v>
-      </c>
+        <v>83.09999999999999</v>
+      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
     </row>
     <row r="60">
@@ -2204,20 +2122,18 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>5,591.57</t>
+          <t>5,692.85</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>34.16</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0.61</v>
-      </c>
+        <v>101.28</v>
+      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
     </row>
     <row r="61">
@@ -2234,20 +2150,18 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>5,447.74</t>
+          <t>5,546.47</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>35.47</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0.65</v>
-      </c>
+        <v>98.73</v>
+      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
     </row>
     <row r="62">
@@ -2264,20 +2178,18 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4,922.11</t>
+          <t>4,998.67</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>32.28</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0.65</v>
-      </c>
+        <v>76.56</v>
+      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
     </row>
     <row r="63">
@@ -2294,20 +2206,18 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>4,579.63</t>
+          <t>4,681.90</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>25.79</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.5600000000000001</v>
-      </c>
+        <v>102.27</v>
+      </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
     </row>
     <row r="64">
@@ -2324,20 +2234,18 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4,040.45</t>
+          <t>4,110.81</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>26.03</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.64</v>
-      </c>
+        <v>70.36</v>
+      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
     </row>
     <row r="65">
@@ -2354,20 +2262,18 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3,782.23</t>
+          <t>3,871.20</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>25.87</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.68</v>
-      </c>
+        <v>88.97</v>
+      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
     </row>
     <row r="66">
@@ -2384,20 +2290,18 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>4,360.16</t>
+          <t>4,467.67</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>46.54</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1.06</v>
-      </c>
+        <v>107.51</v>
+      </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
     </row>
     <row r="67">
@@ -2414,20 +2318,18 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>4,253.28</t>
+          <t>4,321.34</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>24.65</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0.58</v>
-      </c>
+        <v>68.06</v>
+      </c>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
     </row>
     <row r="68">
@@ -2444,20 +2346,18 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>4,077.99</t>
+          <t>4,155.12</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>33.18</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0.8100000000000001</v>
-      </c>
+        <v>77.13</v>
+      </c>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
     </row>
     <row r="69">
@@ -2474,20 +2374,18 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3,626.05</t>
+          <t>3,711.45</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>21.44</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0.59</v>
-      </c>
+        <v>85.40000000000001</v>
+      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
     </row>
     <row r="70">
@@ -2504,20 +2402,18 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3,720.57</t>
+          <t>3,766.14</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>18.93</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.51</v>
-      </c>
+        <v>45.57</v>
+      </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -2534,20 +2430,18 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4,377.18</t>
+          <t>4,433.36</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>27.48</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0.62</v>
-      </c>
+        <v>56.18</v>
+      </c>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
     </row>
     <row r="72">
@@ -2564,20 +2458,18 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>4,113.10</t>
+          <t>4,165.25</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>31.45</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0.76</v>
-      </c>
+        <v>52.15</v>
+      </c>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
     </row>
     <row r="73">
@@ -2594,20 +2486,18 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2,663.33</t>
+          <t>2,769.70</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0.9</v>
-      </c>
+        <v>106.37</v>
+      </c>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
     </row>
     <row r="74">
@@ -2624,7 +2514,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3,980.41</t>
+          <t>4,016.38</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2633,7 +2523,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>17.13</v>
+        <v>35.97</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
@@ -2652,20 +2542,18 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>3,810.54</t>
+          <t>3,863.17</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>27.85</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0.73</v>
-      </c>
+        <v>52.63</v>
+      </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
     </row>
     <row r="76">
@@ -2682,20 +2570,18 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3,604.41</t>
+          <t>3,649.42</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>17.88</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0.49</v>
-      </c>
+        <v>45.01</v>
+      </c>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
     </row>
     <row r="77">
@@ -2712,20 +2598,18 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>3,180.31</t>
+          <t>3,281.54</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>31.92</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.99</v>
-      </c>
+        <v>101.23</v>
+      </c>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
     </row>
     <row r="78">
@@ -2742,20 +2626,18 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>4,691.04</t>
+          <t>4,743.12</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0.28</v>
-      </c>
+        <v>52.08</v>
+      </c>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
     </row>
     <row r="79">
@@ -2772,20 +2654,18 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>3,752.49</t>
+          <t>3,816.82</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>28.53</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0.75</v>
-      </c>
+        <v>64.33</v>
+      </c>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
     </row>
     <row r="80">
@@ -2802,20 +2682,18 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>3,637.92</t>
+          <t>3,700.26</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0.45</v>
-      </c>
+        <v>62.34</v>
+      </c>
+      <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
     </row>
     <row r="81">
@@ -2832,20 +2710,18 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>3,733.07</t>
+          <t>3,785.29</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>72.34</v>
-      </c>
-      <c r="G81" t="n">
-        <v>1.9</v>
-      </c>
+        <v>52.22</v>
+      </c>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
     </row>
     <row r="82">
@@ -2862,20 +2738,18 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4,182.82</t>
+          <t>4,267.90</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>32.07</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0.76</v>
-      </c>
+        <v>85.08</v>
+      </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
     </row>
     <row r="83">
@@ -2892,20 +2766,18 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>3,665.08</t>
+          <t>3,703.32</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>15.44</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0.42</v>
-      </c>
+        <v>38.24</v>
+      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
     </row>
     <row r="84">
@@ -2922,20 +2794,18 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4,686.57</t>
+          <t>4,715.50</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>27.49</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.58</v>
-      </c>
+        <v>28.93</v>
+      </c>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
     </row>
     <row r="85">
@@ -2952,20 +2822,18 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>4,324.67</t>
+          <t>4,379.21</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>27.87</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0.64</v>
-      </c>
+        <v>54.54</v>
+      </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
     </row>
     <row r="86">
@@ -2982,20 +2850,18 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5,181.49</t>
+          <t>5,258.13</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>36.65</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.7</v>
-      </c>
+        <v>76.64</v>
+      </c>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
     </row>
     <row r="87">
@@ -3012,20 +2878,18 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>25,352.06</t>
+          <t>25,787.87</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>393.66</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1.53</v>
-      </c>
+        <v>435.81</v>
+      </c>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
     </row>
     <row r="88">
@@ -3042,18 +2906,20 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>5,039.76</t>
+          <t>4,996.44</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>38.24</v>
-      </c>
-      <c r="G88" t="inlineStr"/>
+        <v>43.32</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.86</v>
+      </c>
       <c r="H88" t="inlineStr"/>
     </row>
     <row r="89">
@@ -3070,20 +2936,18 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>7,620.75</t>
+          <t>7,718.89</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>50.57</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0.66</v>
-      </c>
+        <v>98.14</v>
+      </c>
+      <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -3100,20 +2964,18 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>7,083.44</t>
+          <t>7,195.43</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>49.68</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0.7</v>
-      </c>
+        <v>111.99</v>
+      </c>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
     </row>
     <row r="91">
@@ -3130,20 +2992,18 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>7,548.62</t>
+          <t>7,706.82</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>47.58</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0.63</v>
-      </c>
+        <v>158.2</v>
+      </c>
+      <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
     </row>
     <row r="92">
@@ -3160,20 +3020,18 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>7,403.67</t>
+          <t>7,589.41</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>47.59</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0.64</v>
-      </c>
+        <v>185.74</v>
+      </c>
+      <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
     </row>
     <row r="93">
@@ -3190,20 +3048,18 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>6,277.07</t>
+          <t>6,340.89</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>56.46</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0.89</v>
-      </c>
+        <v>63.82</v>
+      </c>
+      <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
     </row>
     <row r="94">
@@ -3220,20 +3076,18 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>14,305.68</t>
+          <t>14,676.63</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>97.13</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0.67</v>
-      </c>
+        <v>370.95</v>
+      </c>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
     </row>
     <row r="95">
@@ -3250,20 +3104,18 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>6,513.21</t>
+          <t>6,574.44</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>40.52</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0.62</v>
-      </c>
+        <v>61.23</v>
+      </c>
+      <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
     </row>
     <row r="96">
@@ -3280,20 +3132,18 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>7,401.68</t>
+          <t>7,508.60</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>55.69</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0.75</v>
-      </c>
+        <v>106.92</v>
+      </c>
+      <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
     </row>
     <row r="97">
@@ -3310,20 +3160,18 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>5,691.60</t>
+          <t>5,755.48</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>37.92</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0.66</v>
-      </c>
+        <v>63.88</v>
+      </c>
+      <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
     </row>
     <row r="98">
@@ -3340,20 +3188,18 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>5,517.22</t>
+          <t>5,612.76</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>19.31</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0.35</v>
-      </c>
+        <v>95.54000000000001</v>
+      </c>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
     </row>
     <row r="99">
@@ -3370,20 +3216,18 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>6,491.72</t>
+          <t>6,581.94</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>31.64</v>
-      </c>
-      <c r="G99" t="n">
-        <v>0.49</v>
-      </c>
+        <v>90.22</v>
+      </c>
+      <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
     </row>
     <row r="100">
@@ -3400,20 +3244,18 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>6,556.96</t>
+          <t>6,669.97</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>74.33</v>
-      </c>
-      <c r="G100" t="n">
-        <v>1.12</v>
-      </c>
+        <v>113.01</v>
+      </c>
+      <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
     </row>
     <row r="101">
@@ -3430,20 +3272,18 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>8,203.09</t>
+          <t>8,331.79</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>48.72</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0.59</v>
-      </c>
+        <v>128.7</v>
+      </c>
+      <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
     </row>
     <row r="102">
@@ -3460,20 +3300,18 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>5,649.77</t>
+          <t>5,673.59</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>22.67</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0.4</v>
-      </c>
+        <v>23.82</v>
+      </c>
+      <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
     </row>
     <row r="103">
@@ -3490,20 +3328,18 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>7,488.25</t>
+          <t>7,599.78</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>48.23</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0.64</v>
-      </c>
+        <v>111.53</v>
+      </c>
+      <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
     </row>
     <row r="104">
@@ -3520,20 +3356,18 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>7,015.56</t>
+          <t>7,101.08</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>42.85</v>
-      </c>
-      <c r="G104" t="n">
-        <v>0.61</v>
-      </c>
+        <v>85.52</v>
+      </c>
+      <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
     </row>
     <row r="105">
@@ -3550,20 +3384,18 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>6,136.92</t>
+          <t>6,191.12</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>68.29000000000001</v>
-      </c>
-      <c r="G105" t="n">
-        <v>1.1</v>
-      </c>
+        <v>54.2</v>
+      </c>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
     </row>
     <row r="106">
@@ -3580,20 +3412,18 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>5,777.56</t>
+          <t>5,890.21</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>62.05</v>
-      </c>
-      <c r="G106" t="n">
-        <v>1.06</v>
-      </c>
+        <v>112.65</v>
+      </c>
+      <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
     </row>
     <row r="107">
@@ -3610,20 +3440,18 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>4,683.04</t>
+          <t>4,733.35</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>25.19</v>
-      </c>
-      <c r="G107" t="n">
-        <v>0.54</v>
-      </c>
+        <v>50.31</v>
+      </c>
+      <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
     </row>
     <row r="108">
@@ -3640,20 +3468,18 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>7,636.32</t>
+          <t>7,736.78</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>32.61</v>
-      </c>
-      <c r="G108" t="n">
-        <v>0.43</v>
-      </c>
+        <v>100.46</v>
+      </c>
+      <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
     </row>
     <row r="109">
@@ -3670,20 +3496,18 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>6,076.49</t>
+          <t>6,165.34</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0.1</v>
-      </c>
+        <v>88.84999999999999</v>
+      </c>
+      <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
     </row>
     <row r="110">
@@ -3700,20 +3524,18 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>5,429.38</t>
+          <t>5,587.24</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>71.97</v>
-      </c>
-      <c r="G110" t="n">
-        <v>1.31</v>
-      </c>
+        <v>157.86</v>
+      </c>
+      <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
     </row>
     <row r="111">
@@ -3730,20 +3552,18 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>6,547.05</t>
+          <t>6,622.47</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0.49</v>
-      </c>
+        <v>75.42</v>
+      </c>
+      <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
     </row>
     <row r="112">
@@ -3760,20 +3580,18 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>5,409.84</t>
+          <t>5,491.83</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>28.89</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.53</v>
-      </c>
+        <v>81.98999999999999</v>
+      </c>
+      <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
     </row>
     <row r="113">
@@ -3790,20 +3608,18 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>3,907.59</t>
+          <t>3,959.29</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>18.67</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0.48</v>
-      </c>
+        <v>51.7</v>
+      </c>
+      <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
     </row>
     <row r="114">
@@ -3820,20 +3636,18 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>3,830.27</t>
+          <t>3,969.44</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>61.77</v>
-      </c>
-      <c r="G114" t="n">
-        <v>1.59</v>
-      </c>
+        <v>139.17</v>
+      </c>
+      <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
     </row>
     <row r="115">
@@ -3850,20 +3664,18 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>3,916.41</t>
+          <t>4,064.49</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>63.1</v>
-      </c>
-      <c r="G115" t="n">
-        <v>1.59</v>
-      </c>
+        <v>148.08</v>
+      </c>
+      <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
     </row>
     <row r="116">
@@ -3880,20 +3692,18 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>4,343.05</t>
+          <t>4,411.48</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>29.73</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.68</v>
-      </c>
+        <v>68.43000000000001</v>
+      </c>
+      <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
     </row>
     <row r="117">
@@ -3910,20 +3720,18 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>4,607.07</t>
+          <t>4,661.06</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>41.83</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0.9</v>
-      </c>
+        <v>53.99</v>
+      </c>
+      <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
     </row>
     <row r="118">
@@ -3940,20 +3748,18 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>5,466.48</t>
+          <t>5,618.24</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>71.69</v>
-      </c>
-      <c r="G118" t="n">
-        <v>1.29</v>
-      </c>
+        <v>151.76</v>
+      </c>
+      <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
     </row>
     <row r="119">
@@ -3970,20 +3776,18 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>4,894.75</t>
+          <t>4,934.88</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>41.97</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.85</v>
-      </c>
+        <v>40.13</v>
+      </c>
+      <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
     </row>
     <row r="120">
@@ -4000,20 +3804,18 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>5,007.33</t>
+          <t>5,105.21</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>70.41</v>
-      </c>
-      <c r="G120" t="n">
-        <v>1.39</v>
-      </c>
+        <v>97.88</v>
+      </c>
+      <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
     </row>
   </sheetData>

--- a/專題/merge_abs.xlsx
+++ b/專題/merge_abs.xlsx
@@ -484,18 +484,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16,863.34</t>
+          <t>16,323.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>250.39</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>183.7</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.11</v>
+      </c>
       <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -512,18 +514,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14,739.36</t>
+          <t>14,271.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>216.4</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+        <v>171.31</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.19</v>
+      </c>
       <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -540,18 +544,20 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8,417.44</t>
+          <t>8,138.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>124.07</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>122.22</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.48</v>
+      </c>
       <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -568,18 +574,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11,271.36</t>
+          <t>10,839.24</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>178.87</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+        <v>185.15</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.68</v>
+      </c>
       <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -596,18 +604,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10,716.29</t>
+          <t>10,354.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>160.56</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+        <v>141.01</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.34</v>
+      </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -624,18 +634,20 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12,984.10</t>
+          <t>12,646.51</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>211.96</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+        <v>82.43000000000001</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.65</v>
+      </c>
       <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -652,18 +664,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>19,328.54</t>
+          <t>18,365.42</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>362.12</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>354.33</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.89</v>
+      </c>
       <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -680,18 +694,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9,621.79</t>
+          <t>9,573.43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>111.79</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+        <v>82.45</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.85</v>
+      </c>
       <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -708,18 +724,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6,002.28</t>
+          <t>5,999.35</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+        <v>58.63</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.97</v>
+      </c>
       <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -736,18 +754,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9,021.84</t>
+          <t>8,766.58</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>108.91</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+        <v>79.61</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9</v>
+      </c>
       <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -764,18 +784,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8,071.76</t>
+          <t>7,924.16</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>91.43000000000001</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
+        <v>58.38</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.73</v>
+      </c>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -792,18 +814,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12,669.20</t>
+          <t>12,243.83</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>196.82</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
+        <v>158.2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.28</v>
+      </c>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -820,18 +844,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>17,251.07</t>
+          <t>17,089.78</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>169.61</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
+        <v>103.38</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.6</v>
+      </c>
       <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -848,18 +874,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14,363.25</t>
+          <t>14,286.46</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>149.5</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
+        <v>89.89</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.63</v>
+      </c>
       <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -876,18 +904,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8,282.99</t>
+          <t>8,082.54</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>88.03</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
+        <v>20.26</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.25</v>
+      </c>
       <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -904,18 +934,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>613.17</t>
+          <t>604.07</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
+        <v>2.82</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.46</v>
+      </c>
       <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -932,18 +964,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>827.80</t>
+          <t>807.38</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
+        <v>5.47</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.67</v>
+      </c>
       <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -960,18 +994,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3,837.06</t>
+          <t>3,660.66</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>68.05</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
+        <v>57.42</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.54</v>
+      </c>
       <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -988,7 +1024,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>153.73</t>
+          <t>155.29</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -997,10 +1033,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.43</v>
+        <v>0.92</v>
       </c>
       <c r="G20" t="n">
-        <v>0.28</v>
+        <v>0.59</v>
       </c>
       <c r="H20" t="inlineStr"/>
     </row>
@@ -1018,7 +1054,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1,810.75</t>
+          <t>1,793.60</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1027,7 +1063,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>12.91</v>
+        <v>1.52</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
@@ -1046,18 +1082,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>241.73</t>
+          <t>235.68</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>1.97</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.83</v>
+      </c>
       <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1074,18 +1112,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>582.31</t>
+          <t>582.52</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
+        <v>6.74</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.14</v>
+      </c>
       <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1102,18 +1142,20 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>229.48</t>
+          <t>222.10</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
+        <v>0.13</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.06</v>
+      </c>
       <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -1130,18 +1172,20 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>107.22</t>
+          <t>104.81</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
+        <v>1.39</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.31</v>
+      </c>
       <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -1158,18 +1202,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>117.72</t>
+          <t>114.73</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
+        <v>0.49</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.43</v>
+      </c>
       <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -1186,18 +1232,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>129.24</t>
+          <t>125.50</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
+        <v>1.17</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.92</v>
+      </c>
       <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -1214,20 +1262,18 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>73.00</t>
+          <t>71.39</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.07000000000000001</v>
-      </c>
+        <v>0.03</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -1244,7 +1290,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>64.62</t>
+          <t>55.66</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1253,7 +1299,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.46</v>
+        <v>0.15</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
@@ -1272,18 +1318,20 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>296.00</t>
+          <t>290.06</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="G30" t="inlineStr"/>
+        <v>2.87</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.98</v>
+      </c>
       <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -1300,7 +1348,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>138.94</t>
+          <t>144.20</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1309,10 +1357,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="G31" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="H31" t="inlineStr"/>
     </row>
@@ -1330,18 +1378,20 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>234.88</t>
+          <t>230.10</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="G32" t="inlineStr"/>
+        <v>0.8</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.35</v>
+      </c>
       <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -1358,18 +1408,20 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>343.81</t>
+          <t>319.48</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>11.27</v>
-      </c>
-      <c r="G33" t="inlineStr"/>
+        <v>2.23</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.6899999999999999</v>
+      </c>
       <c r="H33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -1386,18 +1438,20 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>684.45</t>
+          <t>652.59</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="G34" t="inlineStr"/>
+        <v>10.51</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.58</v>
+      </c>
       <c r="H34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -1414,18 +1468,20 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>323.91</t>
+          <t>305.84</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="G35" t="inlineStr"/>
+        <v>7.1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2.27</v>
+      </c>
       <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -1442,18 +1498,20 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>125.82</t>
+          <t>123.33</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="G36" t="inlineStr"/>
+        <v>0.55</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.44</v>
+      </c>
       <c r="H36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -1470,17 +1528,11 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>33.90</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>0.65</v>
-      </c>
+          <t>32.51</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
     </row>
@@ -1498,18 +1550,20 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>125.82</t>
+          <t>123.97</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="G38" t="inlineStr"/>
+        <v>1.01</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.8100000000000001</v>
+      </c>
       <c r="H38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -1526,18 +1580,20 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>163.25</t>
+          <t>153.57</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G39" t="inlineStr"/>
+        <v>1.1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.71</v>
+      </c>
       <c r="H39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -1554,18 +1610,20 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>170.98</t>
+          <t>170.94</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="G40" t="inlineStr"/>
+        <v>0.53</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.31</v>
+      </c>
       <c r="H40" t="inlineStr"/>
     </row>
     <row r="41">
@@ -1582,18 +1640,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>122.83</t>
+          <t>121.94</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="G41" t="inlineStr"/>
+        <v>0.25</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.2</v>
+      </c>
       <c r="H41" t="inlineStr"/>
     </row>
     <row r="42">
@@ -1610,18 +1670,20 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>97.18</t>
+          <t>94.76</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="G42" t="inlineStr"/>
+        <v>0.24</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.25</v>
+      </c>
       <c r="H42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -1638,18 +1700,20 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>350.38</t>
+          <t>346.07</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="G43" t="inlineStr"/>
+        <v>1.53</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.44</v>
+      </c>
       <c r="H43" t="inlineStr"/>
     </row>
     <row r="44">
@@ -1666,7 +1730,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>157.77</t>
+          <t>170.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1675,10 +1739,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.63</v>
+        <v>2.54</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4</v>
+        <v>1.47</v>
       </c>
       <c r="H44" t="inlineStr"/>
     </row>
@@ -1696,7 +1760,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>116.98</t>
+          <t>115.34</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1705,7 +1769,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.23</v>
+        <v>0.09</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
@@ -1724,18 +1788,20 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1,527.82</t>
+          <t>1,499.65</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>13.02</v>
-      </c>
-      <c r="G46" t="inlineStr"/>
+        <v>8.23</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.55</v>
+      </c>
       <c r="H46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -1752,18 +1818,20 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>283.34</t>
+          <t>278.53</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="G47" t="inlineStr"/>
+        <v>1.92</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.68</v>
+      </c>
       <c r="H47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -1780,18 +1848,20 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>108.70</t>
+          <t>105.43</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="G48" t="inlineStr"/>
+        <v>1.07</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
       <c r="H48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -1808,18 +1878,20 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>357.01</t>
+          <t>358.50</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="G49" t="inlineStr"/>
+        <v>1.08</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.3</v>
+      </c>
       <c r="H49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -1836,18 +1908,20 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>27,186.81</t>
+          <t>25,464.21</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>786.75</v>
-      </c>
-      <c r="G50" t="inlineStr"/>
+        <v>618.75</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2.37</v>
+      </c>
       <c r="H50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -1864,20 +1938,18 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4,646.48</t>
+          <t>4,794.22</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>70.28</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1.49</v>
-      </c>
+        <v>56.2</v>
+      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -1894,18 +1966,20 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>25,755.01</t>
+          <t>23,382.81</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>904.97</v>
-      </c>
-      <c r="G52" t="inlineStr"/>
+        <v>765.49</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3.17</v>
+      </c>
       <c r="H52" t="inlineStr"/>
     </row>
     <row r="53">
@@ -1922,20 +1996,18 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4,195.48</t>
+          <t>4,394.75</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>77.81</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1.82</v>
-      </c>
+        <v>68.56999999999999</v>
+      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
     </row>
     <row r="54">
@@ -1952,18 +2024,20 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4,446.15</t>
+          <t>4,338.04</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="G54" t="inlineStr"/>
+        <v>30.87</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.71</v>
+      </c>
       <c r="H54" t="inlineStr"/>
     </row>
     <row r="55">
@@ -1980,18 +2054,20 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>6,848.84</t>
+          <t>6,648.62</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>128.39</v>
-      </c>
-      <c r="G55" t="inlineStr"/>
+        <v>42.73</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.64</v>
+      </c>
       <c r="H55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -2008,18 +2084,20 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4,734.34</t>
+          <t>4,562.55</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>105.73</v>
-      </c>
-      <c r="G56" t="inlineStr"/>
+        <v>24.84</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.54</v>
+      </c>
       <c r="H56" t="inlineStr"/>
     </row>
     <row r="57">
@@ -2036,7 +2114,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3,428.35</t>
+          <t>3,476.12</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2045,10 +2123,10 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.1</v>
+        <v>5.96</v>
       </c>
       <c r="G57" t="n">
-        <v>0.03</v>
+        <v>0.17</v>
       </c>
       <c r="H57" t="inlineStr"/>
     </row>
@@ -2066,18 +2144,20 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>7,401.03</t>
+          <t>7,003.68</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>122.36</v>
-      </c>
-      <c r="G58" t="inlineStr"/>
+        <v>85.48999999999999</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.21</v>
+      </c>
       <c r="H58" t="inlineStr"/>
     </row>
     <row r="59">
@@ -2094,18 +2174,20 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>7,958.84</t>
+          <t>7,900.56</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>83.09999999999999</v>
-      </c>
-      <c r="G59" t="inlineStr"/>
+        <v>18.56</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.23</v>
+      </c>
       <c r="H59" t="inlineStr"/>
     </row>
     <row r="60">
@@ -2122,18 +2204,20 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>5,692.85</t>
+          <t>5,491.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>101.28</v>
-      </c>
-      <c r="G60" t="inlineStr"/>
+        <v>34.02</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.62</v>
+      </c>
       <c r="H60" t="inlineStr"/>
     </row>
     <row r="61">
@@ -2150,18 +2234,20 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>5,546.47</t>
+          <t>5,281.79</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>98.73</v>
-      </c>
-      <c r="G61" t="inlineStr"/>
+        <v>65.42</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.22</v>
+      </c>
       <c r="H61" t="inlineStr"/>
     </row>
     <row r="62">
@@ -2178,18 +2264,20 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4,998.67</t>
+          <t>4,830.24</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>76.56</v>
-      </c>
-      <c r="G62" t="inlineStr"/>
+        <v>60.65</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.24</v>
+      </c>
       <c r="H62" t="inlineStr"/>
     </row>
     <row r="63">
@@ -2206,18 +2294,20 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>4,681.90</t>
+          <t>4,396.53</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>102.27</v>
-      </c>
-      <c r="G63" t="inlineStr"/>
+        <v>58.93</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1.32</v>
+      </c>
       <c r="H63" t="inlineStr"/>
     </row>
     <row r="64">
@@ -2234,18 +2324,20 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4,110.81</t>
+          <t>3,909.33</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>70.36</v>
-      </c>
-      <c r="G64" t="inlineStr"/>
+        <v>51.9</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1.31</v>
+      </c>
       <c r="H64" t="inlineStr"/>
     </row>
     <row r="65">
@@ -2262,18 +2354,20 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3,871.20</t>
+          <t>3,617.27</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>88.97</v>
-      </c>
-      <c r="G65" t="inlineStr"/>
+        <v>19.34</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.53</v>
+      </c>
       <c r="H65" t="inlineStr"/>
     </row>
     <row r="66">
@@ -2290,18 +2384,20 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>4,467.67</t>
+          <t>4,227.59</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>107.51</v>
-      </c>
-      <c r="G66" t="inlineStr"/>
+        <v>54.08</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1.26</v>
+      </c>
       <c r="H66" t="inlineStr"/>
     </row>
     <row r="67">
@@ -2318,18 +2414,20 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>4,321.34</t>
+          <t>4,190.71</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>68.06</v>
-      </c>
-      <c r="G67" t="inlineStr"/>
+        <v>32.69</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.77</v>
+      </c>
       <c r="H67" t="inlineStr"/>
     </row>
     <row r="68">
@@ -2346,18 +2444,20 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>4,155.12</t>
+          <t>3,960.31</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>77.13</v>
-      </c>
-      <c r="G68" t="inlineStr"/>
+        <v>56.46</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1.41</v>
+      </c>
       <c r="H68" t="inlineStr"/>
     </row>
     <row r="69">
@@ -2374,18 +2474,20 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3,711.45</t>
+          <t>3,482.49</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>85.40000000000001</v>
-      </c>
-      <c r="G69" t="inlineStr"/>
+        <v>46.55</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1.32</v>
+      </c>
       <c r="H69" t="inlineStr"/>
     </row>
     <row r="70">
@@ -2402,18 +2504,20 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3,766.14</t>
+          <t>3,717.23</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>45.57</v>
-      </c>
-      <c r="G70" t="inlineStr"/>
+        <v>42.81</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.14</v>
+      </c>
       <c r="H70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -2430,18 +2534,20 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4,433.36</t>
+          <t>4,314.85</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>56.18</v>
-      </c>
-      <c r="G71" t="inlineStr"/>
+        <v>49.81</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1.14</v>
+      </c>
       <c r="H71" t="inlineStr"/>
     </row>
     <row r="72">
@@ -2458,18 +2564,20 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>4,165.25</t>
+          <t>4,044.68</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>52.15</v>
-      </c>
-      <c r="G72" t="inlineStr"/>
+        <v>59.9</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.46</v>
+      </c>
       <c r="H72" t="inlineStr"/>
     </row>
     <row r="73">
@@ -2486,7 +2594,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2,769.70</t>
+          <t>2,571.35</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2495,7 +2603,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>106.37</v>
+        <v>3.17</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
@@ -2514,7 +2622,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4,016.38</t>
+          <t>4,035.23</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2523,7 +2631,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>35.97</v>
+        <v>3.62</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
@@ -2542,18 +2650,20 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>3,863.17</t>
+          <t>3,744.06</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>52.63</v>
-      </c>
-      <c r="G75" t="inlineStr"/>
+        <v>50.8</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1.34</v>
+      </c>
       <c r="H75" t="inlineStr"/>
     </row>
     <row r="76">
@@ -2570,18 +2680,20 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3,649.42</t>
+          <t>3,652.32</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>45.01</v>
-      </c>
-      <c r="G76" t="inlineStr"/>
+        <v>7.58</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.21</v>
+      </c>
       <c r="H76" t="inlineStr"/>
     </row>
     <row r="77">
@@ -2598,18 +2710,20 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>3,281.54</t>
+          <t>3,079.45</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>101.23</v>
-      </c>
-      <c r="G77" t="inlineStr"/>
+        <v>2.93</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.1</v>
+      </c>
       <c r="H77" t="inlineStr"/>
     </row>
     <row r="78">
@@ -2626,18 +2740,20 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>4,743.12</t>
+          <t>4,692.77</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>52.08</v>
-      </c>
-      <c r="G78" t="inlineStr"/>
+        <v>21.57</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.46</v>
+      </c>
       <c r="H78" t="inlineStr"/>
     </row>
     <row r="79">
@@ -2654,18 +2770,20 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>3,816.82</t>
+          <t>3,794.31</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>64.33</v>
-      </c>
-      <c r="G79" t="inlineStr"/>
+        <v>22.57</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.59</v>
+      </c>
       <c r="H79" t="inlineStr"/>
     </row>
     <row r="80">
@@ -2682,18 +2800,20 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>3,700.26</t>
+          <t>3,599.01</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>62.34</v>
-      </c>
-      <c r="G80" t="inlineStr"/>
+        <v>43.73</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1.2</v>
+      </c>
       <c r="H80" t="inlineStr"/>
     </row>
     <row r="81">
@@ -2710,18 +2830,20 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>3,785.29</t>
+          <t>3,490.18</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>52.22</v>
-      </c>
-      <c r="G81" t="inlineStr"/>
+        <v>7.2</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.21</v>
+      </c>
       <c r="H81" t="inlineStr"/>
     </row>
     <row r="82">
@@ -2738,18 +2860,20 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4,267.90</t>
+          <t>4,018.10</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>85.08</v>
-      </c>
-      <c r="G82" t="inlineStr"/>
+        <v>67.48</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1.65</v>
+      </c>
       <c r="H82" t="inlineStr"/>
     </row>
     <row r="83">
@@ -2766,18 +2890,20 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>3,703.32</t>
+          <t>3,698.45</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>38.24</v>
-      </c>
-      <c r="G83" t="inlineStr"/>
+        <v>32.39</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.87</v>
+      </c>
       <c r="H83" t="inlineStr"/>
     </row>
     <row r="84">
@@ -2794,18 +2920,20 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4,715.50</t>
+          <t>4,722.88</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>28.93</v>
-      </c>
-      <c r="G84" t="inlineStr"/>
+        <v>17.77</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.37</v>
+      </c>
       <c r="H84" t="inlineStr"/>
     </row>
     <row r="85">
@@ -2822,18 +2950,20 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>4,379.21</t>
+          <t>4,373.24</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>54.54</v>
-      </c>
-      <c r="G85" t="inlineStr"/>
+        <v>18.07</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.41</v>
+      </c>
       <c r="H85" t="inlineStr"/>
     </row>
     <row r="86">
@@ -2850,18 +2980,20 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5,258.13</t>
+          <t>5,135.49</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>76.64</v>
-      </c>
-      <c r="G86" t="inlineStr"/>
+        <v>86.22</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1.65</v>
+      </c>
       <c r="H86" t="inlineStr"/>
     </row>
     <row r="87">
@@ -2878,18 +3010,20 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>25,787.87</t>
+          <t>24,836.22</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>435.81</v>
-      </c>
-      <c r="G87" t="inlineStr"/>
+        <v>274.1</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1.09</v>
+      </c>
       <c r="H87" t="inlineStr"/>
     </row>
     <row r="88">
@@ -2906,20 +3040,18 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>4,996.44</t>
+          <t>5,088.37</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>43.32</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0.86</v>
-      </c>
+        <v>27.62</v>
+      </c>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
     </row>
     <row r="89">
@@ -2936,18 +3068,20 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>7,718.89</t>
+          <t>7,551.38</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>98.14</v>
-      </c>
-      <c r="G89" t="inlineStr"/>
+        <v>64.56999999999999</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.85</v>
+      </c>
       <c r="H89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -2964,18 +3098,20 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>7,195.43</t>
+          <t>6,916.22</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>111.99</v>
-      </c>
-      <c r="G90" t="inlineStr"/>
+        <v>76.04000000000001</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1.09</v>
+      </c>
       <c r="H90" t="inlineStr"/>
     </row>
     <row r="91">
@@ -2992,18 +3128,20 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>7,706.82</t>
+          <t>7,339.37</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>158.2</v>
-      </c>
-      <c r="G91" t="inlineStr"/>
+        <v>78.09999999999999</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1.05</v>
+      </c>
       <c r="H91" t="inlineStr"/>
     </row>
     <row r="92">
@@ -3020,18 +3158,20 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>7,589.41</t>
+          <t>7,190.10</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>185.74</v>
-      </c>
-      <c r="G92" t="inlineStr"/>
+        <v>85.87</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1.18</v>
+      </c>
       <c r="H92" t="inlineStr"/>
     </row>
     <row r="93">
@@ -3048,18 +3188,20 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>6,340.89</t>
+          <t>6,302.20</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>63.82</v>
-      </c>
-      <c r="G93" t="inlineStr"/>
+        <v>31.72</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.5</v>
+      </c>
       <c r="H93" t="inlineStr"/>
     </row>
     <row r="94">
@@ -3076,18 +3218,20 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>14,676.63</t>
+          <t>13,893.10</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>370.95</v>
-      </c>
-      <c r="G94" t="inlineStr"/>
+        <v>12.46</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.09</v>
+      </c>
       <c r="H94" t="inlineStr"/>
     </row>
     <row r="95">
@@ -3104,18 +3248,20 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>6,574.44</t>
+          <t>6,500.66</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>61.23</v>
-      </c>
-      <c r="G95" t="inlineStr"/>
+        <v>2.03</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.03</v>
+      </c>
       <c r="H95" t="inlineStr"/>
     </row>
     <row r="96">
@@ -3132,18 +3278,20 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>7,508.60</t>
+          <t>7,275.78</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>106.92</v>
-      </c>
-      <c r="G96" t="inlineStr"/>
+        <v>100.81</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1.37</v>
+      </c>
       <c r="H96" t="inlineStr"/>
     </row>
     <row r="97">
@@ -3160,18 +3308,20 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>5,755.48</t>
+          <t>5,654.07</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>63.88</v>
-      </c>
-      <c r="G97" t="inlineStr"/>
+        <v>23.2</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.41</v>
+      </c>
       <c r="H97" t="inlineStr"/>
     </row>
     <row r="98">
@@ -3188,18 +3338,20 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>5,612.76</t>
+          <t>5,474.89</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>95.54000000000001</v>
-      </c>
-      <c r="G98" t="inlineStr"/>
+        <v>19.53</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.36</v>
+      </c>
       <c r="H98" t="inlineStr"/>
     </row>
     <row r="99">
@@ -3216,18 +3368,20 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>6,581.94</t>
+          <t>6,542.32</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>90.22</v>
-      </c>
-      <c r="G99" t="inlineStr"/>
+        <v>31.84</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.48</v>
+      </c>
       <c r="H99" t="inlineStr"/>
     </row>
     <row r="100">
@@ -3244,18 +3398,20 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>6,669.97</t>
+          <t>6,372.40</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>113.01</v>
-      </c>
-      <c r="G100" t="inlineStr"/>
+        <v>71.09</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1.1</v>
+      </c>
       <c r="H100" t="inlineStr"/>
     </row>
     <row r="101">
@@ -3272,18 +3428,20 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>8,331.79</t>
+          <t>8,115.38</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="G101" t="inlineStr"/>
+        <v>41.69</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.51</v>
+      </c>
       <c r="H101" t="inlineStr"/>
     </row>
     <row r="102">
@@ -3300,18 +3458,20 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>5,673.59</t>
+          <t>5,605.54</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>23.82</v>
-      </c>
-      <c r="G102" t="inlineStr"/>
+        <v>18.47</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.33</v>
+      </c>
       <c r="H102" t="inlineStr"/>
     </row>
     <row r="103">
@@ -3328,18 +3488,20 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>7,599.78</t>
+          <t>7,363.53</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>111.53</v>
-      </c>
-      <c r="G103" t="inlineStr"/>
+        <v>85.95999999999999</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1.15</v>
+      </c>
       <c r="H103" t="inlineStr"/>
     </row>
     <row r="104">
@@ -3356,18 +3518,20 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>7,101.08</t>
+          <t>6,978.82</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>85.52</v>
-      </c>
-      <c r="G104" t="inlineStr"/>
+        <v>34.25</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.49</v>
+      </c>
       <c r="H104" t="inlineStr"/>
     </row>
     <row r="105">
@@ -3384,18 +3548,20 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>6,191.12</t>
+          <t>6,152.00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>54.2</v>
-      </c>
-      <c r="G105" t="inlineStr"/>
+        <v>19.15</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.31</v>
+      </c>
       <c r="H105" t="inlineStr"/>
     </row>
     <row r="106">
@@ -3412,18 +3578,20 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>5,890.21</t>
+          <t>5,636.86</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>112.65</v>
-      </c>
-      <c r="G106" t="inlineStr"/>
+        <v>72.79000000000001</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1.27</v>
+      </c>
       <c r="H106" t="inlineStr"/>
     </row>
     <row r="107">
@@ -3440,18 +3608,20 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>4,733.35</t>
+          <t>4,668.31</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>50.31</v>
-      </c>
-      <c r="G107" t="inlineStr"/>
+        <v>58.98</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1.25</v>
+      </c>
       <c r="H107" t="inlineStr"/>
     </row>
     <row r="108">
@@ -3468,18 +3638,20 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>7,736.78</t>
+          <t>7,485.34</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>100.46</v>
-      </c>
-      <c r="G108" t="inlineStr"/>
+        <v>98.64</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1.3</v>
+      </c>
       <c r="H108" t="inlineStr"/>
     </row>
     <row r="109">
@@ -3496,18 +3668,20 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>6,165.34</t>
+          <t>6,149.09</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>88.84999999999999</v>
-      </c>
-      <c r="G109" t="inlineStr"/>
+        <v>33.03</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.53</v>
+      </c>
       <c r="H109" t="inlineStr"/>
     </row>
     <row r="110">
@@ -3524,18 +3698,20 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>5,587.24</t>
+          <t>5,287.14</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>157.86</v>
-      </c>
-      <c r="G110" t="inlineStr"/>
+        <v>42.76</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.8</v>
+      </c>
       <c r="H110" t="inlineStr"/>
     </row>
     <row r="111">
@@ -3552,18 +3728,20 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>6,622.47</t>
+          <t>6,386.65</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>75.42</v>
-      </c>
-      <c r="G111" t="inlineStr"/>
+        <v>58.98</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.92</v>
+      </c>
       <c r="H111" t="inlineStr"/>
     </row>
     <row r="112">
@@ -3580,18 +3758,20 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>5,491.83</t>
+          <t>5,305.19</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>81.98999999999999</v>
-      </c>
-      <c r="G112" t="inlineStr"/>
+        <v>64.91</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1.21</v>
+      </c>
       <c r="H112" t="inlineStr"/>
     </row>
     <row r="113">
@@ -3608,18 +3788,20 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>3,959.29</t>
+          <t>3,821.41</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="G113" t="inlineStr"/>
+        <v>29.63</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.77</v>
+      </c>
       <c r="H113" t="inlineStr"/>
     </row>
     <row r="114">
@@ -3636,18 +3818,20 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>3,969.44</t>
+          <t>3,758.07</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>139.17</v>
-      </c>
-      <c r="G114" t="inlineStr"/>
+        <v>36.97</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.97</v>
+      </c>
       <c r="H114" t="inlineStr"/>
     </row>
     <row r="115">
@@ -3664,18 +3848,20 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>4,064.49</t>
+          <t>3,796.93</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>148.08</v>
-      </c>
-      <c r="G115" t="inlineStr"/>
+        <v>35.58</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.93</v>
+      </c>
       <c r="H115" t="inlineStr"/>
     </row>
     <row r="116">
@@ -3692,18 +3878,20 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>4,411.48</t>
+          <t>4,300.10</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>68.43000000000001</v>
-      </c>
-      <c r="G116" t="inlineStr"/>
+        <v>37.17</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.86</v>
+      </c>
       <c r="H116" t="inlineStr"/>
     </row>
     <row r="117">
@@ -3720,18 +3908,20 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>4,661.06</t>
+          <t>4,648.81</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>53.99</v>
-      </c>
-      <c r="G117" t="inlineStr"/>
+        <v>29.47</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.63</v>
+      </c>
       <c r="H117" t="inlineStr"/>
     </row>
     <row r="118">
@@ -3748,18 +3938,20 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>5,618.24</t>
+          <t>5,370.67</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>151.76</v>
-      </c>
-      <c r="G118" t="inlineStr"/>
+        <v>75.81999999999999</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1.39</v>
+      </c>
       <c r="H118" t="inlineStr"/>
     </row>
     <row r="119">
@@ -3776,18 +3968,20 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>4,934.88</t>
+          <t>4,819.15</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>40.13</v>
-      </c>
-      <c r="G119" t="inlineStr"/>
+        <v>34.17</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.7</v>
+      </c>
       <c r="H119" t="inlineStr"/>
     </row>
     <row r="120">
@@ -3804,18 +3998,20 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>5,105.21</t>
+          <t>4,874.37</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>97.88</v>
-      </c>
-      <c r="G120" t="inlineStr"/>
+        <v>23.29</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.48</v>
+      </c>
       <c r="H120" t="inlineStr"/>
     </row>
   </sheetData>
